--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1213714.594876177</v>
+        <v>1210064.796107267</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2284470.912813047</v>
+        <v>2327352.096509273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791247</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9880415.281170696</v>
+        <v>9876018.586866392</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>366.7921170112548</v>
       </c>
       <c r="D2" t="n">
-        <v>328.3880613828972</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>139.6232726022598</v>
+        <v>153.7027382608566</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>169.257088831002</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>40.02170330568897</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>301.5037012161743</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>295.3234534519692</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1038,10 +1038,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>7.543513421882219</v>
       </c>
       <c r="Y6" t="n">
-        <v>88.0389864014787</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>103.881269554817</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.8666172744861</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>76.47341699539027</v>
       </c>
       <c r="E8" t="n">
-        <v>308.4508922863375</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>206.4502314363189</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>313.8343050701096</v>
+        <v>316.9394767830361</v>
       </c>
       <c r="C11" t="n">
-        <v>306.5882532979254</v>
+        <v>309.6934250108519</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>302.0363960242521</v>
       </c>
       <c r="E11" t="n">
-        <v>315.9021964504476</v>
+        <v>319.0073681633741</v>
       </c>
       <c r="F11" t="n">
-        <v>330.0700009011487</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>326.3756347727036</v>
+        <v>329.48080648563</v>
       </c>
       <c r="H11" t="n">
-        <v>238.186726745001</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.29825255428652</v>
+        <v>57.403424267213</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.29809803711312</v>
       </c>
       <c r="T11" t="n">
-        <v>138.6101032320042</v>
+        <v>141.7152749449307</v>
       </c>
       <c r="U11" t="n">
-        <v>170.5397090855741</v>
+        <v>173.6448807985005</v>
       </c>
       <c r="V11" t="n">
-        <v>256.0302480193435</v>
+        <v>259.13541973227</v>
       </c>
       <c r="W11" t="n">
-        <v>260.0608689659997</v>
+        <v>287.7387232101486</v>
       </c>
       <c r="X11" t="n">
-        <v>302.9025858321004</v>
+        <v>118.3301109519657</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>312.9754805173581</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.700445320215</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>85.84757357049737</v>
+        <v>88.95274528342385</v>
       </c>
       <c r="D13" t="n">
-        <v>71.4212887823371</v>
+        <v>74.52646049526358</v>
       </c>
       <c r="E13" t="n">
-        <v>57.45151343562352</v>
+        <v>74.45290254814269</v>
       </c>
       <c r="F13" t="n">
-        <v>73.09718225498348</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>83.91602017737561</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>71.26827234394766</v>
+        <v>49.33189423069113</v>
       </c>
       <c r="I13" t="n">
-        <v>49.10798792511959</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.00648628957551</v>
+        <v>43.11165800250198</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>121.2376015080293</v>
       </c>
       <c r="T13" t="n">
-        <v>150.7063681292749</v>
+        <v>153.8115398422014</v>
       </c>
       <c r="U13" t="n">
-        <v>199.9289106563448</v>
+        <v>203.0340823692712</v>
       </c>
       <c r="V13" t="n">
-        <v>180.6640585432107</v>
+        <v>183.7692302561372</v>
       </c>
       <c r="W13" t="n">
-        <v>197.8416048639609</v>
+        <v>200.9467765768873</v>
       </c>
       <c r="X13" t="n">
-        <v>149.0840258106734</v>
+        <v>152.1891975235999</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>141.3306191002762</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>313.8343050701096</v>
+        <v>316.9394767830361</v>
       </c>
       <c r="C14" t="n">
-        <v>306.5882532979254</v>
+        <v>309.6934250108519</v>
       </c>
       <c r="D14" t="n">
-        <v>298.9312243113256</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>319.0073681633741</v>
       </c>
       <c r="F14" t="n">
-        <v>330.0700009011487</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>326.3756347727036</v>
+        <v>329.48080648563</v>
       </c>
       <c r="H14" t="n">
-        <v>238.186726745001</v>
+        <v>241.2918984579274</v>
       </c>
       <c r="I14" t="n">
-        <v>54.29825255428652</v>
+        <v>57.403424267213</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>85.29809803711312</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>141.7152749449307</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>173.6448807985005</v>
       </c>
       <c r="V14" t="n">
-        <v>247.7080411403897</v>
+        <v>259.13541973227</v>
       </c>
       <c r="W14" t="n">
-        <v>284.6335514972221</v>
+        <v>160.8055741834125</v>
       </c>
       <c r="X14" t="n">
-        <v>302.9025858321004</v>
+        <v>306.0077575450269</v>
       </c>
       <c r="Y14" t="n">
-        <v>309.8703088044316</v>
+        <v>312.9754805173581</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.98609530917906</v>
+        <v>103.8056170331414</v>
       </c>
       <c r="C16" t="n">
-        <v>85.84757357049737</v>
+        <v>88.95274528342385</v>
       </c>
       <c r="D16" t="n">
-        <v>71.4212887823371</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>73.09718225498348</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>83.91602017737561</v>
+        <v>87.02119189030209</v>
       </c>
       <c r="H16" t="n">
-        <v>71.26827234394766</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7.484448350654165</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.00648628957551</v>
+        <v>43.11165800250198</v>
       </c>
       <c r="S16" t="n">
-        <v>118.1324297951028</v>
+        <v>121.2376015080293</v>
       </c>
       <c r="T16" t="n">
-        <v>150.7063681292749</v>
+        <v>153.8115398422014</v>
       </c>
       <c r="U16" t="n">
-        <v>199.9289106563448</v>
+        <v>203.0340823692712</v>
       </c>
       <c r="V16" t="n">
-        <v>180.6640585432107</v>
+        <v>183.7692302561372</v>
       </c>
       <c r="W16" t="n">
-        <v>197.8416048639609</v>
+        <v>200.9467765768873</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>152.1891975235999</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.2254473873498</v>
+        <v>141.3306191002762</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386987</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799124</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697378</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412926</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.48225061359</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875578</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.4884501927757</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059325</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658112</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006895</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880403</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908643</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092616</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380527</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357254</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596467</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253672</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708645</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369188</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.001891997864</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117998</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792625</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593883</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386987</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799147</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697353</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412926</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.48225061359</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875578</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.4884501927757</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059325</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879329</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658112</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006895</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880403</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908643</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092616</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380527</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357254</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596467</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253672</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708645</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369188</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.001891997864</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117998</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792625</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593883</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>116.5879451458358</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>16.14696237312834</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2807,10 +2807,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>152.6920917385748</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>29.60166801680263</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -3029,25 +3029,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C32" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D32" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F32" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G32" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H32" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U32" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W32" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X32" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386987</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799147</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.48225061359</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.59377642287555</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277567</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059322</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006895</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.995969188804</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.1430974390864</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092613</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380524</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357251</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596464</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253669</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708617</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369185</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792625</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.5209712559388</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,16 +3749,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422876402</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,25 +4022,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2068.128570116833</v>
+        <v>570.7528753210697</v>
       </c>
       <c r="C2" t="n">
-        <v>2068.128570116833</v>
+        <v>200.2557874309133</v>
       </c>
       <c r="D2" t="n">
-        <v>1736.423457608856</v>
+        <v>200.2557874309133</v>
       </c>
       <c r="E2" t="n">
-        <v>1333.8399327254</v>
+        <v>200.2557874309133</v>
       </c>
       <c r="F2" t="n">
-        <v>916.945494255378</v>
+        <v>187.4017530012952</v>
       </c>
       <c r="G2" t="n">
-        <v>503.7827387433812</v>
+        <v>178.2794015297024</v>
       </c>
       <c r="H2" t="n">
-        <v>179.6996883098718</v>
+        <v>178.2794015297024</v>
       </c>
       <c r="I2" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="J2" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="K2" t="n">
-        <v>41.36257140233666</v>
+        <v>398.9246406496291</v>
       </c>
       <c r="L2" t="n">
-        <v>534.6828631208655</v>
+        <v>892.2449323681578</v>
       </c>
       <c r="M2" t="n">
-        <v>583.1940958481177</v>
+        <v>1317.982898768093</v>
       </c>
       <c r="N2" t="n">
-        <v>1095.055916952034</v>
+        <v>1812.268670967412</v>
       </c>
       <c r="O2" t="n">
-        <v>1535.095517844362</v>
+        <v>1812.268670967412</v>
       </c>
       <c r="P2" t="n">
-        <v>1883.283009975884</v>
+        <v>1812.268670967412</v>
       </c>
       <c r="Q2" t="n">
-        <v>2068.128570116833</v>
+        <v>1997.11423110836</v>
       </c>
       <c r="R2" t="n">
-        <v>2068.128570116833</v>
+        <v>1959.121317393882</v>
       </c>
       <c r="S2" t="n">
-        <v>2068.128570116833</v>
+        <v>1792.607762334933</v>
       </c>
       <c r="T2" t="n">
-        <v>2068.128570116833</v>
+        <v>1569.107159894349</v>
       </c>
       <c r="U2" t="n">
-        <v>2068.128570116833</v>
+        <v>1313.354430328948</v>
       </c>
       <c r="V2" t="n">
-        <v>2068.128570116833</v>
+        <v>971.2476210324666</v>
       </c>
       <c r="W2" t="n">
-        <v>2068.128570116833</v>
+        <v>971.2476210324666</v>
       </c>
       <c r="X2" t="n">
-        <v>2068.128570116833</v>
+        <v>971.2476210324666</v>
       </c>
       <c r="Y2" t="n">
-        <v>2068.128570116833</v>
+        <v>971.2476210324666</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.7285545423676</v>
+        <v>545.429389729106</v>
       </c>
       <c r="C3" t="n">
-        <v>690.0743241024599</v>
+        <v>394.7751592891982</v>
       </c>
       <c r="D3" t="n">
-        <v>559.9853567239402</v>
+        <v>264.6861919106785</v>
       </c>
       <c r="E3" t="n">
-        <v>423.5388658348278</v>
+        <v>128.2397010215663</v>
       </c>
       <c r="F3" t="n">
-        <v>299.1070597179597</v>
+        <v>128.2397010215663</v>
       </c>
       <c r="G3" t="n">
-        <v>179.0472417898241</v>
+        <v>128.2397010215663</v>
       </c>
       <c r="H3" t="n">
-        <v>90.74982539042506</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="I3" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="J3" t="n">
-        <v>154.477553622064</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="K3" t="n">
-        <v>154.477553622064</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="L3" t="n">
-        <v>638.0436395203773</v>
+        <v>523.5083705204804</v>
       </c>
       <c r="M3" t="n">
-        <v>916.2802887416285</v>
+        <v>1017.7941427198</v>
       </c>
       <c r="N3" t="n">
-        <v>1428.142109845545</v>
+        <v>1512.079914919119</v>
       </c>
       <c r="O3" t="n">
-        <v>1428.142109845545</v>
+        <v>1997.11423110836</v>
       </c>
       <c r="P3" t="n">
-        <v>1833.763478561942</v>
+        <v>1997.11423110836</v>
       </c>
       <c r="Q3" t="n">
-        <v>2068.128570116833</v>
+        <v>1997.11423110836</v>
       </c>
       <c r="R3" t="n">
-        <v>2044.211527014897</v>
+        <v>1973.197188006425</v>
       </c>
       <c r="S3" t="n">
-        <v>1909.280849914766</v>
+        <v>1838.266510906294</v>
       </c>
       <c r="T3" t="n">
-        <v>1732.297038113674</v>
+        <v>1661.282699105202</v>
       </c>
       <c r="U3" t="n">
-        <v>1732.297038113674</v>
+        <v>1451.219555783844</v>
       </c>
       <c r="V3" t="n">
-        <v>1591.263429424523</v>
+        <v>1295.964264611262</v>
       </c>
       <c r="W3" t="n">
-        <v>1361.14618355781</v>
+        <v>1065.847018744548</v>
       </c>
       <c r="X3" t="n">
-        <v>1171.839105907822</v>
+        <v>876.5399410945602</v>
       </c>
       <c r="Y3" t="n">
-        <v>992.524888983329</v>
+        <v>697.2257241700673</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.5544966406194</v>
+        <v>351.13420986045</v>
       </c>
       <c r="C4" t="n">
-        <v>352.5544966406194</v>
+        <v>351.13420986045</v>
       </c>
       <c r="D4" t="n">
-        <v>196.9213835431341</v>
+        <v>195.5010967629647</v>
       </c>
       <c r="E4" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="F4" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="G4" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="H4" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="I4" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="J4" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="K4" t="n">
-        <v>123.1976125122785</v>
+        <v>121.7773257321091</v>
       </c>
       <c r="L4" t="n">
-        <v>287.3252523860783</v>
+        <v>285.9049656059088</v>
       </c>
       <c r="M4" t="n">
-        <v>473.6168307243423</v>
+        <v>472.1965439441728</v>
       </c>
       <c r="N4" t="n">
-        <v>656.8064647555516</v>
+        <v>655.386177975382</v>
       </c>
       <c r="O4" t="n">
-        <v>819.5112317972596</v>
+        <v>818.09094501709</v>
       </c>
       <c r="P4" t="n">
-        <v>939.3873975738381</v>
+        <v>937.9671107936686</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637195</v>
       </c>
       <c r="R4" t="n">
-        <v>942.8095939438891</v>
+        <v>817.4883177962965</v>
       </c>
       <c r="S4" t="n">
-        <v>942.8095939438891</v>
+        <v>614.672233978846</v>
       </c>
       <c r="T4" t="n">
-        <v>942.8095939438891</v>
+        <v>614.672233978846</v>
       </c>
       <c r="U4" t="n">
-        <v>942.8095939438891</v>
+        <v>614.672233978846</v>
       </c>
       <c r="V4" t="n">
-        <v>771.8428375489376</v>
+        <v>614.672233978846</v>
       </c>
       <c r="W4" t="n">
-        <v>771.8428375489376</v>
+        <v>574.2462710438066</v>
       </c>
       <c r="X4" t="n">
-        <v>537.7625153319207</v>
+        <v>574.2462710438066</v>
       </c>
       <c r="Y4" t="n">
-        <v>537.7625153319207</v>
+        <v>351.13420986045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.0636519482679</v>
+        <v>1146.861864070663</v>
       </c>
       <c r="C5" t="n">
-        <v>367.8881504511984</v>
+        <v>753.6863625735937</v>
       </c>
       <c r="D5" t="n">
-        <v>63.33895730354761</v>
+        <v>753.6863625735937</v>
       </c>
       <c r="E5" t="n">
-        <v>63.33895730354761</v>
+        <v>351.1028376901382</v>
       </c>
       <c r="F5" t="n">
-        <v>50.48492287392943</v>
+        <v>338.24880326052</v>
       </c>
       <c r="G5" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="H5" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="I5" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="J5" t="n">
-        <v>41.36257140233666</v>
+        <v>184.5920575309953</v>
       </c>
       <c r="K5" t="n">
-        <v>111.0450352981431</v>
+        <v>543.5744135584571</v>
       </c>
       <c r="L5" t="n">
-        <v>604.3653270166719</v>
+        <v>1036.894705276986</v>
       </c>
       <c r="M5" t="n">
-        <v>1116.227148120588</v>
+        <v>1036.894705276986</v>
       </c>
       <c r="N5" t="n">
-        <v>1628.088969224504</v>
+        <v>1208.88713808451</v>
       </c>
       <c r="O5" t="n">
-        <v>2068.128570116833</v>
+        <v>1648.926738976839</v>
       </c>
       <c r="P5" t="n">
-        <v>2068.128570116833</v>
+        <v>1997.11423110836</v>
       </c>
       <c r="Q5" t="n">
-        <v>2068.128570116833</v>
+        <v>1997.11423110836</v>
       </c>
       <c r="R5" t="n">
-        <v>2030.135656402354</v>
+        <v>1997.11423110836</v>
       </c>
       <c r="S5" t="n">
-        <v>1863.622101343405</v>
+        <v>1997.11423110836</v>
       </c>
       <c r="T5" t="n">
-        <v>1863.622101343405</v>
+        <v>1773.613628667777</v>
       </c>
       <c r="U5" t="n">
-        <v>1863.622101343405</v>
+        <v>1517.860899102376</v>
       </c>
       <c r="V5" t="n">
-        <v>1521.515292046924</v>
+        <v>1517.860899102376</v>
       </c>
       <c r="W5" t="n">
-        <v>1150.516257015211</v>
+        <v>1146.861864070663</v>
       </c>
       <c r="X5" t="n">
-        <v>761.0636519482679</v>
+        <v>1146.861864070663</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.0636519482679</v>
+        <v>1146.861864070663</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>791.3413005542792</v>
+        <v>659.8320463955902</v>
       </c>
       <c r="C6" t="n">
-        <v>640.6870701143714</v>
+        <v>509.1778159556823</v>
       </c>
       <c r="D6" t="n">
-        <v>510.5981027358517</v>
+        <v>509.1778159556823</v>
       </c>
       <c r="E6" t="n">
-        <v>374.1516118467395</v>
+        <v>372.73132506657</v>
       </c>
       <c r="F6" t="n">
-        <v>249.7198057298713</v>
+        <v>248.2995189497018</v>
       </c>
       <c r="G6" t="n">
-        <v>129.6599878017357</v>
+        <v>128.2397010215663</v>
       </c>
       <c r="H6" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="I6" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="J6" t="n">
-        <v>154.477553622064</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="K6" t="n">
-        <v>474.2166996842905</v>
+        <v>359.6814306843937</v>
       </c>
       <c r="L6" t="n">
-        <v>474.2166996842905</v>
+        <v>843.2475165827069</v>
       </c>
       <c r="M6" t="n">
-        <v>810.0398363541099</v>
+        <v>843.2475165827069</v>
       </c>
       <c r="N6" t="n">
-        <v>1321.901657458026</v>
+        <v>1268.463367354151</v>
       </c>
       <c r="O6" t="n">
-        <v>1833.763478561942</v>
+        <v>1762.74913955347</v>
       </c>
       <c r="P6" t="n">
-        <v>1833.763478561942</v>
+        <v>1762.74913955347</v>
       </c>
       <c r="Q6" t="n">
-        <v>2068.128570116833</v>
+        <v>1997.11423110836</v>
       </c>
       <c r="R6" t="n">
-        <v>2044.211527014897</v>
+        <v>1973.197188006425</v>
       </c>
       <c r="S6" t="n">
-        <v>1909.280849914766</v>
+        <v>1838.266510906294</v>
       </c>
       <c r="T6" t="n">
-        <v>1732.297038113674</v>
+        <v>1661.282699105202</v>
       </c>
       <c r="U6" t="n">
-        <v>1522.233894792316</v>
+        <v>1451.219555783844</v>
       </c>
       <c r="V6" t="n">
-        <v>1299.693893163383</v>
+        <v>1228.679554154911</v>
       </c>
       <c r="W6" t="n">
-        <v>1069.57664729667</v>
+        <v>998.562308288198</v>
       </c>
       <c r="X6" t="n">
-        <v>880.2695696466819</v>
+        <v>990.9425977610442</v>
       </c>
       <c r="Y6" t="n">
-        <v>791.3413005542792</v>
+        <v>811.6283808365515</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.36257140233666</v>
+        <v>144.8728599300631</v>
       </c>
       <c r="C7" t="n">
-        <v>41.36257140233666</v>
+        <v>144.8728599300631</v>
       </c>
       <c r="D7" t="n">
-        <v>41.36257140233666</v>
+        <v>144.8728599300631</v>
       </c>
       <c r="E7" t="n">
-        <v>41.36257140233666</v>
+        <v>144.8728599300631</v>
       </c>
       <c r="F7" t="n">
-        <v>41.36257140233666</v>
+        <v>144.8728599300631</v>
       </c>
       <c r="G7" t="n">
-        <v>41.36257140233666</v>
+        <v>144.8728599300631</v>
       </c>
       <c r="H7" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="I7" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="J7" t="n">
-        <v>41.36257140233666</v>
+        <v>39.94228462216721</v>
       </c>
       <c r="K7" t="n">
-        <v>123.1976125122785</v>
+        <v>121.7773257321091</v>
       </c>
       <c r="L7" t="n">
-        <v>287.3252523860783</v>
+        <v>285.9049656059088</v>
       </c>
       <c r="M7" t="n">
-        <v>473.6168307243423</v>
+        <v>472.1965439441728</v>
       </c>
       <c r="N7" t="n">
-        <v>656.8064647555516</v>
+        <v>655.386177975382</v>
       </c>
       <c r="O7" t="n">
-        <v>819.5112317972596</v>
+        <v>818.09094501709</v>
       </c>
       <c r="P7" t="n">
-        <v>939.3873975738381</v>
+        <v>937.9671107936686</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637195</v>
       </c>
       <c r="R7" t="n">
-        <v>818.9086045764661</v>
+        <v>817.4883177962965</v>
       </c>
       <c r="S7" t="n">
-        <v>818.9086045764661</v>
+        <v>614.672233978846</v>
       </c>
       <c r="T7" t="n">
-        <v>818.9086045764661</v>
+        <v>378.95318214708</v>
       </c>
       <c r="U7" t="n">
-        <v>533.469812818367</v>
+        <v>378.95318214708</v>
       </c>
       <c r="V7" t="n">
-        <v>267.4904676391913</v>
+        <v>378.95318214708</v>
       </c>
       <c r="W7" t="n">
-        <v>41.36257140233666</v>
+        <v>378.95318214708</v>
       </c>
       <c r="X7" t="n">
-        <v>41.36257140233666</v>
+        <v>144.8728599300631</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.36257140233666</v>
+        <v>144.8728599300631</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>766.2970426510742</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="C8" t="n">
-        <v>766.2970426510742</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="D8" t="n">
-        <v>380.8559138677419</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4811,13 +4811,13 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>2118.077574438405</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1563.28249744187</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.28249744187</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.28249744187</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1166.791788362471</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4990,19 +4990,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>882.0615091076409</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>596.6227173495417</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>330.643372170366</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
         <v>47.31297010154361</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1649.413132473321</v>
+        <v>1393.049854927673</v>
       </c>
       <c r="C11" t="n">
-        <v>1339.728028131982</v>
+        <v>1080.22821350257</v>
       </c>
       <c r="D11" t="n">
-        <v>1339.728028131982</v>
+        <v>775.1409447912038</v>
       </c>
       <c r="E11" t="n">
-        <v>1020.634900404257</v>
+        <v>452.9112799797147</v>
       </c>
       <c r="F11" t="n">
-        <v>687.2308590899653</v>
+        <v>452.9112799797147</v>
       </c>
       <c r="G11" t="n">
-        <v>357.558500733699</v>
+        <v>120.1023845396844</v>
       </c>
       <c r="H11" t="n">
-        <v>116.9658474559203</v>
+        <v>120.1023845396844</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3019.796690218794</v>
       </c>
       <c r="T11" t="n">
-        <v>2965.946179920923</v>
+        <v>2876.649947850177</v>
       </c>
       <c r="U11" t="n">
-        <v>2793.683847511253</v>
+        <v>2701.251078356742</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.067435370502</v>
+        <v>2439.498129132227</v>
       </c>
       <c r="W11" t="n">
-        <v>2272.3796889402</v>
+        <v>2148.852954172481</v>
       </c>
       <c r="X11" t="n">
-        <v>1966.417481028987</v>
+        <v>2029.327589574536</v>
       </c>
       <c r="Y11" t="n">
-        <v>1966.417481028987</v>
+        <v>1713.190740567103</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>691.2836731261136</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>1319.055322752795</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
         <v>1974.833293963354</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.1997726433925</v>
+        <v>352.2847868531271</v>
       </c>
       <c r="C13" t="n">
-        <v>472.4850518651124</v>
+        <v>262.4335289910827</v>
       </c>
       <c r="D13" t="n">
-        <v>400.342335923358</v>
+        <v>187.1542759655641</v>
       </c>
       <c r="E13" t="n">
-        <v>342.3105041702028</v>
+        <v>111.9493238967328</v>
       </c>
       <c r="F13" t="n">
-        <v>268.4749665389063</v>
+        <v>111.9493238967328</v>
       </c>
       <c r="G13" t="n">
-        <v>183.7113097940825</v>
+        <v>111.9493238967328</v>
       </c>
       <c r="H13" t="n">
-        <v>111.723155911307</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>114.1743233590096</v>
+        <v>111.1002033632124</v>
       </c>
       <c r="K13" t="n">
-        <v>277.8383027212831</v>
+        <v>271.6900627296886</v>
       </c>
       <c r="L13" t="n">
-        <v>523.7948808474144</v>
+        <v>514.5725208600228</v>
       </c>
       <c r="M13" t="n">
-        <v>791.91539743801</v>
+        <v>779.6189174548211</v>
       </c>
       <c r="N13" t="n">
-        <v>1056.933969721551</v>
+        <v>1041.563369742565</v>
       </c>
       <c r="O13" t="n">
-        <v>1301.46767501559</v>
+        <v>1283.022955040807</v>
       </c>
       <c r="P13" t="n">
-        <v>1503.172779044501</v>
+        <v>1481.65393907392</v>
       </c>
       <c r="Q13" t="n">
-        <v>1588.423913666883</v>
+        <v>1563.830953700505</v>
       </c>
       <c r="R13" t="n">
-        <v>1548.01332145519</v>
+        <v>1520.283824405049</v>
       </c>
       <c r="S13" t="n">
-        <v>1548.01332145519</v>
+        <v>1397.821600659565</v>
       </c>
       <c r="T13" t="n">
-        <v>1395.784666779155</v>
+        <v>1242.456408899765</v>
       </c>
       <c r="U13" t="n">
-        <v>1193.836272176786</v>
+        <v>1037.371477213633</v>
       </c>
       <c r="V13" t="n">
-        <v>1011.347324153341</v>
+        <v>851.7459921064235</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5073192402496</v>
+        <v>648.7694501095676</v>
       </c>
       <c r="X13" t="n">
-        <v>660.9173941789631</v>
+        <v>495.0429879645172</v>
       </c>
       <c r="Y13" t="n">
-        <v>660.9173941789631</v>
+        <v>352.2847868531271</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1632.270736373197</v>
+        <v>1331.691776577848</v>
       </c>
       <c r="C14" t="n">
-        <v>1322.585632031858</v>
+        <v>1018.870135152746</v>
       </c>
       <c r="D14" t="n">
-        <v>1020.634900404257</v>
+        <v>1018.870135152746</v>
       </c>
       <c r="E14" t="n">
-        <v>1020.634900404257</v>
+        <v>696.6404703412575</v>
       </c>
       <c r="F14" t="n">
-        <v>687.230859089965</v>
+        <v>696.6404703412575</v>
       </c>
       <c r="G14" t="n">
-        <v>357.5585007336988</v>
+        <v>363.8315749012271</v>
       </c>
       <c r="H14" t="n">
-        <v>116.9658474559203</v>
+        <v>120.1023845396843</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5297,31 +5297,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205777</v>
+        <v>3019.796690218793</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205777</v>
+        <v>2876.649947850176</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205777</v>
+        <v>2701.251078356741</v>
       </c>
       <c r="V14" t="n">
-        <v>2855.746242639726</v>
+        <v>2439.498129132226</v>
       </c>
       <c r="W14" t="n">
-        <v>2568.237604763745</v>
+        <v>2277.068256219688</v>
       </c>
       <c r="X14" t="n">
-        <v>2262.275396852532</v>
+        <v>1967.969511224711</v>
       </c>
       <c r="Y14" t="n">
-        <v>1949.275084928863</v>
+        <v>1651.832662217279</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>346.0196676966397</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7913173233209</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.56928853388</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O15" t="n">
         <v>2146.089571124861</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>451.5639126830461</v>
+        <v>247.4306282337923</v>
       </c>
       <c r="C16" t="n">
-        <v>364.8491919047659</v>
+        <v>157.5793703717481</v>
       </c>
       <c r="D16" t="n">
-        <v>292.7064759630113</v>
+        <v>157.5793703717481</v>
       </c>
       <c r="E16" t="n">
-        <v>292.7064759630113</v>
+        <v>157.5793703717481</v>
       </c>
       <c r="F16" t="n">
-        <v>218.8709383317148</v>
+        <v>157.5793703717481</v>
       </c>
       <c r="G16" t="n">
-        <v>134.107281586891</v>
+        <v>69.67917654316014</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>69.67917654316014</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>114.1743233590093</v>
+        <v>111.1002033632124</v>
       </c>
       <c r="K16" t="n">
-        <v>277.8383027212827</v>
+        <v>271.6900627296886</v>
       </c>
       <c r="L16" t="n">
-        <v>523.7948808474141</v>
+        <v>514.5725208600227</v>
       </c>
       <c r="M16" t="n">
-        <v>791.9153974380097</v>
+        <v>779.618917454821</v>
       </c>
       <c r="N16" t="n">
-        <v>1056.933969721551</v>
+        <v>1041.563369742565</v>
       </c>
       <c r="O16" t="n">
-        <v>1301.46767501559</v>
+        <v>1283.022955040807</v>
       </c>
       <c r="P16" t="n">
-        <v>1503.1727790445</v>
+        <v>1481.65393907392</v>
       </c>
       <c r="Q16" t="n">
-        <v>1588.423913666883</v>
+        <v>1563.830953700505</v>
       </c>
       <c r="R16" t="n">
-        <v>1548.013321455191</v>
+        <v>1520.283824405049</v>
       </c>
       <c r="S16" t="n">
-        <v>1428.687634793471</v>
+        <v>1397.821600659565</v>
       </c>
       <c r="T16" t="n">
-        <v>1276.458980117435</v>
+        <v>1242.456408899765</v>
       </c>
       <c r="U16" t="n">
-        <v>1074.510585515067</v>
+        <v>1037.371477213633</v>
       </c>
       <c r="V16" t="n">
-        <v>892.0216374916216</v>
+        <v>851.7459921064235</v>
       </c>
       <c r="W16" t="n">
-        <v>692.1816325785297</v>
+        <v>648.7694501095676</v>
       </c>
       <c r="X16" t="n">
-        <v>692.1816325785297</v>
+        <v>495.0429879645172</v>
       </c>
       <c r="Y16" t="n">
-        <v>552.5599685509037</v>
+        <v>352.2847868531271</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099319</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924237</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.29570107106</v>
@@ -5552,13 +5552,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1009.629923393023</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885604</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369568</v>
+        <v>197.403597936958</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.447221521881</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634919</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588731</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072701</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462931</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222437</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184718</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567358</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.199033287945</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.903800329653</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106232</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.06281534124</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918825</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161918</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194243</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330103</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984017</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974534</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975434</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099319</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803434</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924237</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5774,16 +5774,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5838,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885604</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369568</v>
+        <v>197.403597936958</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.447221521881</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634919</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588731</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072701</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462931</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291064</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390483</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567358</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.199033287945</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214671</v>
+        <v>974.903800329653</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106232</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.06281534124</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918825</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161918</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194243</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330103</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984017</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974534</v>
       </c>
     </row>
     <row r="23">
@@ -5972,7 +5972,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F23" t="n">
         <v>542.6718405099314</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,19 +6014,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6072,13 +6072,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1833.765838259578</v>
+        <v>1688.705318221237</v>
       </c>
       <c r="C26" t="n">
-        <v>1535.531018049697</v>
+        <v>1390.470498011356</v>
       </c>
       <c r="D26" t="n">
-        <v>1245.030570553553</v>
+        <v>1099.970050515212</v>
       </c>
       <c r="E26" t="n">
-        <v>937.3877269572858</v>
+        <v>982.2044493578021</v>
       </c>
       <c r="F26" t="n">
-        <v>615.433969774452</v>
+        <v>660.2506921749682</v>
       </c>
       <c r="G26" t="n">
-        <v>297.2118955496435</v>
+        <v>342.0286179501597</v>
       </c>
       <c r="H26" t="n">
-        <v>68.06952640332248</v>
+        <v>112.8862488038388</v>
       </c>
       <c r="I26" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349193</v>
       </c>
       <c r="J26" t="n">
-        <v>262.3716051161314</v>
+        <v>214.13958609232</v>
       </c>
       <c r="K26" t="n">
-        <v>714.4053228731665</v>
+        <v>573.1219421197818</v>
       </c>
       <c r="L26" t="n">
-        <v>1300.776976321269</v>
+        <v>1159.493595567884</v>
       </c>
       <c r="M26" t="n">
-        <v>1846.777876365849</v>
+        <v>1705.494495612465</v>
       </c>
       <c r="N26" t="n">
-        <v>2374.589160003311</v>
+        <v>2259.500775552638</v>
       </c>
       <c r="O26" t="n">
-        <v>2814.62876089564</v>
+        <v>2792.591738174539</v>
       </c>
       <c r="P26" t="n">
-        <v>3162.816253027162</v>
+        <v>3140.779230306061</v>
       </c>
       <c r="Q26" t="n">
-        <v>3347.661813168111</v>
+        <v>3418.676152176583</v>
       </c>
       <c r="R26" t="n">
-        <v>3403.476320166124</v>
+        <v>3474.490659174597</v>
       </c>
       <c r="S26" t="n">
-        <v>3403.476320166124</v>
+        <v>3402.917785402836</v>
       </c>
       <c r="T26" t="n">
-        <v>3274.916399012729</v>
+        <v>3274.35786424944</v>
       </c>
       <c r="U26" t="n">
-        <v>3258.60633600957</v>
+        <v>3113.545815971229</v>
       </c>
       <c r="V26" t="n">
-        <v>3011.440208000276</v>
+        <v>2866.379687961935</v>
       </c>
       <c r="W26" t="n">
-        <v>2735.381854255752</v>
+        <v>2590.321334217411</v>
       </c>
       <c r="X26" t="n">
-        <v>2440.869930475997</v>
+        <v>2295.809410437656</v>
       </c>
       <c r="Y26" t="n">
-        <v>2139.319902683786</v>
+        <v>1994.259382645446</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.4355095433534</v>
+        <v>868.8557963235229</v>
       </c>
       <c r="C27" t="n">
-        <v>716.7812791034456</v>
+        <v>718.2015658836151</v>
       </c>
       <c r="D27" t="n">
-        <v>586.692311724926</v>
+        <v>588.1125985050954</v>
       </c>
       <c r="E27" t="n">
-        <v>450.2458208358137</v>
+        <v>451.6661076159832</v>
       </c>
       <c r="F27" t="n">
-        <v>325.8140147189455</v>
+        <v>327.234301499115</v>
       </c>
       <c r="G27" t="n">
-        <v>205.7541967908099</v>
+        <v>207.1744835709794</v>
       </c>
       <c r="H27" t="n">
-        <v>117.4567803914109</v>
+        <v>118.8770671715803</v>
       </c>
       <c r="I27" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349193</v>
       </c>
       <c r="J27" t="n">
-        <v>181.1845086230499</v>
+        <v>182.6047954032193</v>
       </c>
       <c r="K27" t="n">
-        <v>500.9236546852763</v>
+        <v>182.6047954032193</v>
       </c>
       <c r="L27" t="n">
-        <v>984.4897405835895</v>
+        <v>666.1708813015325</v>
       </c>
       <c r="M27" t="n">
-        <v>1229.898318516689</v>
+        <v>666.1708813015325</v>
       </c>
       <c r="N27" t="n">
-        <v>1229.898318516689</v>
+        <v>1321.948852512091</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.41860110767</v>
+        <v>1838.469135103072</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.039969824068</v>
+        <v>2244.09050381947</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.488018277023</v>
+        <v>2363.908305057192</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.557341176891</v>
+        <v>2228.977627957061</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.5735293758</v>
+        <v>2051.993816155969</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.510386054442</v>
+        <v>1841.930672834611</v>
       </c>
       <c r="V27" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.390671205678</v>
       </c>
       <c r="W27" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.273425338965</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.546060908807</v>
+        <v>1199.966347688977</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.652130764484</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.0347656543076</v>
+        <v>500.4550524344768</v>
       </c>
       <c r="C28" t="n">
-        <v>423.7703290074851</v>
+        <v>425.1906157876543</v>
       </c>
       <c r="D28" t="n">
-        <v>363.0778971971881</v>
+        <v>364.4981839773574</v>
       </c>
       <c r="E28" t="n">
-        <v>302.4597663435788</v>
+        <v>303.8800531237482</v>
       </c>
       <c r="F28" t="n">
-        <v>240.07451284374</v>
+        <v>241.4947996239093</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7611402303739</v>
+        <v>168.1814270105432</v>
       </c>
       <c r="H28" t="n">
-        <v>106.2232704790563</v>
+        <v>107.6435572592257</v>
       </c>
       <c r="I28" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349193</v>
       </c>
       <c r="J28" t="n">
-        <v>131.3471455354584</v>
+        <v>132.7674323156277</v>
       </c>
       <c r="K28" t="n">
-        <v>306.2335483749736</v>
+        <v>307.6538351551429</v>
       </c>
       <c r="L28" t="n">
-        <v>563.4125499783466</v>
+        <v>564.832836758516</v>
       </c>
       <c r="M28" t="n">
-        <v>842.7554900461841</v>
+        <v>844.1757768263535</v>
       </c>
       <c r="N28" t="n">
-        <v>1118.996485806967</v>
+        <v>1120.416772587136</v>
       </c>
       <c r="O28" t="n">
-        <v>1374.752614578248</v>
+        <v>1376.172901358417</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.6801420844</v>
+        <v>1589.100428864569</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.153700184024</v>
+        <v>1685.573986964193</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.193392103789</v>
+        <v>1656.613678883959</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.317989573527</v>
+        <v>1548.738276353697</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.539619028949</v>
+        <v>1407.959905809119</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.041508558039</v>
+        <v>1217.461795338208</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.423131446221</v>
       </c>
       <c r="W28" t="n">
-        <v>856.6131238844173</v>
+        <v>858.0334106645867</v>
       </c>
       <c r="X28" t="n">
-        <v>717.4734829545888</v>
+        <v>718.8937697347581</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.3021030584205</v>
+        <v>590.7223898385897</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.162273879925</v>
+        <v>1760.278191992997</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.927453670044</v>
+        <v>1462.043371783116</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.4270061739</v>
+        <v>1171.542924286972</v>
       </c>
       <c r="E29" t="n">
-        <v>980.7841625776327</v>
+        <v>863.9000806907052</v>
       </c>
       <c r="F29" t="n">
-        <v>658.8304053947988</v>
+        <v>541.9463235078713</v>
       </c>
       <c r="G29" t="n">
-        <v>340.6083311699904</v>
+        <v>223.7242492830625</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4659620236693</v>
+        <v>69.48981318349193</v>
       </c>
       <c r="I29" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349193</v>
       </c>
       <c r="J29" t="n">
-        <v>305.7706610417239</v>
+        <v>214.13958609232</v>
       </c>
       <c r="K29" t="n">
-        <v>664.7530170691857</v>
+        <v>573.1219421197818</v>
       </c>
       <c r="L29" t="n">
-        <v>1158.073308787714</v>
+        <v>1066.442233838311</v>
       </c>
       <c r="M29" t="n">
-        <v>1704.074208832295</v>
+        <v>1638.638130185602</v>
       </c>
       <c r="N29" t="n">
-        <v>2231.885492469757</v>
+        <v>2166.449413823064</v>
       </c>
       <c r="O29" t="n">
-        <v>2671.925093362086</v>
+        <v>2699.540376444966</v>
       </c>
       <c r="P29" t="n">
-        <v>3069.764891297589</v>
+        <v>3140.779230306061</v>
       </c>
       <c r="Q29" t="n">
-        <v>3347.661813168111</v>
+        <v>3418.676152176583</v>
       </c>
       <c r="R29" t="n">
-        <v>3403.476320166124</v>
+        <v>3474.490659174597</v>
       </c>
       <c r="S29" t="n">
-        <v>3331.903446394363</v>
+        <v>3474.490659174597</v>
       </c>
       <c r="T29" t="n">
-        <v>3331.903446394363</v>
+        <v>3345.930738021201</v>
       </c>
       <c r="U29" t="n">
-        <v>3302.002771629916</v>
+        <v>3185.118689742989</v>
       </c>
       <c r="V29" t="n">
-        <v>3054.836643620623</v>
+        <v>2937.952561733695</v>
       </c>
       <c r="W29" t="n">
-        <v>2778.778289876099</v>
+        <v>2661.894207989171</v>
       </c>
       <c r="X29" t="n">
-        <v>2484.266366096344</v>
+        <v>2367.382284209416</v>
       </c>
       <c r="Y29" t="n">
-        <v>2182.716338304133</v>
+        <v>2065.832256417206</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.4355095433534</v>
+        <v>868.8557963235229</v>
       </c>
       <c r="C30" t="n">
-        <v>716.7812791034456</v>
+        <v>718.2015658836151</v>
       </c>
       <c r="D30" t="n">
-        <v>586.692311724926</v>
+        <v>588.1125985050954</v>
       </c>
       <c r="E30" t="n">
-        <v>450.2458208358137</v>
+        <v>451.6661076159832</v>
       </c>
       <c r="F30" t="n">
-        <v>325.8140147189455</v>
+        <v>327.234301499115</v>
       </c>
       <c r="G30" t="n">
-        <v>205.7541967908099</v>
+        <v>207.1744835709794</v>
       </c>
       <c r="H30" t="n">
-        <v>117.4567803914109</v>
+        <v>118.8770671715803</v>
       </c>
       <c r="I30" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349193</v>
       </c>
       <c r="J30" t="n">
-        <v>181.1845086230499</v>
+        <v>69.48981318349193</v>
       </c>
       <c r="K30" t="n">
-        <v>500.9236546852763</v>
+        <v>389.2289592457184</v>
       </c>
       <c r="L30" t="n">
-        <v>984.4897405835895</v>
+        <v>872.7950451440316</v>
       </c>
       <c r="M30" t="n">
-        <v>1229.898318516689</v>
+        <v>1497.682285393678</v>
       </c>
       <c r="N30" t="n">
-        <v>1229.898318516689</v>
+        <v>2153.460256604237</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.41860110767</v>
+        <v>2153.460256604237</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.039969824068</v>
+        <v>2153.460256604237</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.488018277023</v>
+        <v>2363.908305057192</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.557341176891</v>
+        <v>2228.977627957061</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.5735293758</v>
+        <v>2051.993816155969</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.510386054442</v>
+        <v>1841.930672834611</v>
       </c>
       <c r="V30" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.390671205678</v>
       </c>
       <c r="W30" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.273425338965</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.546060908807</v>
+        <v>1199.966347688977</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.652130764484</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.0347656543075</v>
+        <v>500.4550524344774</v>
       </c>
       <c r="C31" t="n">
-        <v>423.7703290074851</v>
+        <v>425.1906157876549</v>
       </c>
       <c r="D31" t="n">
-        <v>363.0778971971878</v>
+        <v>364.498183977358</v>
       </c>
       <c r="E31" t="n">
-        <v>302.4597663435787</v>
+        <v>303.8800531237488</v>
       </c>
       <c r="F31" t="n">
-        <v>240.07451284374</v>
+        <v>241.4947996239101</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7611402303739</v>
+        <v>168.181427010544</v>
       </c>
       <c r="H31" t="n">
-        <v>106.2232704790562</v>
+        <v>107.6435572592257</v>
       </c>
       <c r="I31" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349193</v>
       </c>
       <c r="J31" t="n">
-        <v>131.3471455354584</v>
+        <v>132.7674323156278</v>
       </c>
       <c r="K31" t="n">
-        <v>306.2335483749735</v>
+        <v>307.6538351551429</v>
       </c>
       <c r="L31" t="n">
-        <v>563.4125499783465</v>
+        <v>564.832836758516</v>
       </c>
       <c r="M31" t="n">
-        <v>842.7554900461838</v>
+        <v>844.1757768263534</v>
       </c>
       <c r="N31" t="n">
-        <v>1118.996485806966</v>
+        <v>1120.416772587136</v>
       </c>
       <c r="O31" t="n">
-        <v>1374.752614578248</v>
+        <v>1376.172901358417</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.680142084399</v>
+        <v>1589.100428864569</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.153700184024</v>
+        <v>1685.573986964193</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.193392103789</v>
+        <v>1656.613678883959</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.317989573527</v>
+        <v>1548.738276353696</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.539619028949</v>
+        <v>1407.959905809119</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.041508558039</v>
+        <v>1217.461795338208</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.423131446221</v>
       </c>
       <c r="W31" t="n">
-        <v>856.6131238844173</v>
+        <v>858.0334106645871</v>
       </c>
       <c r="X31" t="n">
-        <v>717.4734829545888</v>
+        <v>718.8937697347586</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.3021030584205</v>
+        <v>590.7223898385903</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129449</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404066</v>
       </c>
       <c r="L32" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M32" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N32" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O32" t="n">
         <v>2572.923332933306</v>
@@ -6719,25 +6719,25 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q32" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T32" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
         <v>2147.691468840156</v>
@@ -6777,19 +6777,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.947919817482</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O33" t="n">
         <v>1740.468202408463</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462926</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
@@ -6871,37 +6871,37 @@
         <v>806.6193906797589</v>
       </c>
       <c r="O34" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P34" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q34" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U34" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129449</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404066</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,10 +6956,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -7020,7 +7020,7 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975457</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924237</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K38" t="n">
         <v>565.7512566404055</v>
@@ -7193,31 +7193,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K39" t="n">
-        <v>381.8582737663419</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1084.690231197904</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885603</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369578</v>
       </c>
       <c r="D40" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218809</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634918</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588731</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072698</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462931</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
         <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.06281534124</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918822</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161915</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194241</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330101</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984015</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974532</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7421,7 +7421,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,31 +7430,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
         <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7494,13 +7494,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.690231197904</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072686</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
         <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924322</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072686</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1059.426580900608</v>
+        <v>965.7235964838017</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>198.7262967767699</v>
+        <v>579.7634014966515</v>
       </c>
       <c r="N2" t="n">
-        <v>666.1506338669923</v>
+        <v>648.3970491148742</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>373.4342424748182</v>
+        <v>591.665679826402</v>
       </c>
       <c r="N3" t="n">
-        <v>602.4042553833748</v>
+        <v>584.6506706312567</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>582.6212116052947</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>213.4447303467186</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>666.7571941269355</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>666.1506338669923</v>
+        <v>322.8482214463944</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>431.6024116147861</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>602.4042553833748</v>
+        <v>514.8830732293624</v>
       </c>
       <c r="O6" t="n">
-        <v>609.7197014180971</v>
+        <v>591.966116665979</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8459,16 +8459,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>213.6604073397399</v>
+        <v>320.6920226450452</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8532,13 +8532,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>663.2434089132782</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -8547,7 +8547,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,22 +8766,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L12" t="n">
-        <v>402.611255301132</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826963</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9006,10 +9006,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>262.5710112738847</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,7 +9018,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>301.8549375253372</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9720,16 +9720,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,16 +9954,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069881</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.2745745069881</v>
+        <v>723.5863546247125</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210921</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10668,10 +10668,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294528</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10905,22 +10905,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>313.8678003657251</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,16 +11142,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>199.6102425680207</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>298.9312243113256</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>333.1751726140752</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.2918984579274</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.19292632418656</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>24.5726825312224</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>187.6776465930612</v>
       </c>
       <c r="Y11" t="n">
-        <v>309.8703088044316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>103.8056170331414</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13.89621739959269</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>76.20235396790996</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>87.02119189030209</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>25.041549826183</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>52.21315963804606</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.1324297951028</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.2254473873498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>302.0363960242521</v>
       </c>
       <c r="E14" t="n">
-        <v>315.9021964504476</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>333.1751726140752</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.19292632418664</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>138.6101032320042</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>170.5397090855741</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.322206878953835</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>126.9331490267361</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7143500110359042</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>74.52646049526358</v>
       </c>
       <c r="E16" t="n">
-        <v>71.34773083521621</v>
+        <v>74.45290254814269</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>76.20235396790996</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>74.37344405687413</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10798792511959</v>
+        <v>44.7287112873919</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>149.0840258106734</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.245315045001917e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.476099325576797e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-4.934835381763733e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>187.9784700144686</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>143.0569654223026</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>74.15885371628295</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>129.6022597786283</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-9.003997547551988e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856747.7323914479</v>
+        <v>855461.2968805612</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>856747.7323914479</v>
+        <v>855461.2968805612</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801097.5745157489</v>
+        <v>795064.8558547697</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801097.5745157489</v>
+        <v>795064.8558547697</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>870887.3415637101</v>
+        <v>870887.34156371</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>870887.3415637102</v>
+        <v>870887.34156371</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>848395.2280682641</v>
+        <v>854427.9467292433</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>848395.2280682641</v>
+        <v>854427.9467292432</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>870887.3415637101</v>
+        <v>870887.3415637102</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468863.6630427275</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="C2" t="n">
-        <v>468863.6630427277</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="D2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="E2" t="n">
-        <v>427624.2552416594</v>
+        <v>424059.4669419898</v>
       </c>
       <c r="F2" t="n">
-        <v>427624.2552416592</v>
+        <v>424059.4669419896</v>
       </c>
       <c r="G2" t="n">
+        <v>468863.6630427275</v>
+      </c>
+      <c r="H2" t="n">
+        <v>468863.6630427276</v>
+      </c>
+      <c r="I2" t="n">
+        <v>468863.6630427275</v>
+      </c>
+      <c r="J2" t="n">
+        <v>459137.6570041788</v>
+      </c>
+      <c r="K2" t="n">
+        <v>459137.6570041789</v>
+      </c>
+      <c r="L2" t="n">
         <v>468863.6630427277</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>468863.6630427278</v>
+      </c>
+      <c r="N2" t="n">
+        <v>468863.6630427288</v>
+      </c>
+      <c r="O2" t="n">
+        <v>468863.6630427273</v>
+      </c>
+      <c r="P2" t="n">
         <v>468863.6630427275</v>
-      </c>
-      <c r="I2" t="n">
-        <v>468863.6630427276</v>
-      </c>
-      <c r="J2" t="n">
-        <v>455572.8687045103</v>
-      </c>
-      <c r="K2" t="n">
-        <v>455572.8687045102</v>
-      </c>
-      <c r="L2" t="n">
-        <v>468863.6630427276</v>
-      </c>
-      <c r="M2" t="n">
-        <v>468863.6630427276</v>
-      </c>
-      <c r="N2" t="n">
-        <v>468863.6630427274</v>
-      </c>
-      <c r="O2" t="n">
-        <v>468863.6630427277</v>
-      </c>
-      <c r="P2" t="n">
-        <v>468863.6630427276</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173269.3627008158</v>
+        <v>167319.7281179318</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23104.6543491832</v>
+        <v>28619.45038073363</v>
       </c>
       <c r="E3" t="n">
-        <v>121384.3061055976</v>
+        <v>118900.1687352564</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38163.58090512891</v>
+        <v>40647.71827546994</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>191768.8730399277</v>
+        <v>189284.7356695866</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67258.53677814326</v>
+        <v>69742.67414848421</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989166</v>
+        <v>46121.92123989171</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37029.43867432424</v>
+        <v>34545.30130398321</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237678.3429158605</v>
+        <v>241176.6654449998</v>
       </c>
       <c r="C4" t="n">
-        <v>237678.3429158605</v>
+        <v>241176.6654449998</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>163209.5240165945</v>
+        <v>160071.6060205696</v>
       </c>
       <c r="F4" t="n">
-        <v>163209.5240165946</v>
+        <v>160071.6060205696</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="I4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="J4" t="n">
-        <v>188080.7174146151</v>
+        <v>191282.9196628496</v>
       </c>
       <c r="K4" t="n">
-        <v>188080.7174146151</v>
+        <v>191282.9196628496</v>
       </c>
       <c r="L4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="N4" t="n">
+        <v>199269.1699682602</v>
+      </c>
+      <c r="O4" t="n">
         <v>199269.1699682603</v>
-      </c>
-      <c r="O4" t="n">
-        <v>199269.1699682604</v>
       </c>
       <c r="P4" t="n">
         <v>199269.1699682603</v>
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65063.15426577585</v>
+        <v>63983.73631284708</v>
       </c>
       <c r="C5" t="n">
-        <v>65063.15426577585</v>
+        <v>63983.73631284708</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>54159.30171162806</v>
+        <v>53898.25303089405</v>
       </c>
       <c r="F5" t="n">
-        <v>54159.30171162807</v>
+        <v>53898.25303089405</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
-        <v>59634.5925203064</v>
+        <v>60714.01047323518</v>
       </c>
       <c r="K5" t="n">
-        <v>59634.59252030639</v>
+        <v>60714.01047323518</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
@@ -26503,13 +26503,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7147.196839724711</v>
+        <v>-3616.466833051018</v>
       </c>
       <c r="C6" t="n">
-        <v>166122.1658610914</v>
+        <v>163703.2612848807</v>
       </c>
       <c r="D6" t="n">
-        <v>153151.6948647038</v>
+        <v>147636.8988331533</v>
       </c>
       <c r="E6" t="n">
-        <v>88871.12340783916</v>
+        <v>91017.11532411301</v>
       </c>
       <c r="F6" t="n">
-        <v>210255.4295134365</v>
+        <v>209917.2840593693</v>
       </c>
       <c r="G6" t="n">
-        <v>173261.1428538188</v>
+        <v>170777.0054834777</v>
       </c>
       <c r="H6" t="n">
+        <v>211424.7237589477</v>
+      </c>
+      <c r="I6" t="n">
         <v>211424.7237589475</v>
       </c>
-      <c r="I6" t="n">
-        <v>211424.7237589476</v>
-      </c>
       <c r="J6" t="n">
-        <v>16088.6857296611</v>
+        <v>17818.58348297454</v>
       </c>
       <c r="K6" t="n">
-        <v>207857.5587695887</v>
+        <v>207103.3191525613</v>
       </c>
       <c r="L6" t="n">
-        <v>144166.1869808044</v>
+        <v>141682.0496104636</v>
       </c>
       <c r="M6" t="n">
-        <v>165302.802519056</v>
+        <v>165302.8025190561</v>
       </c>
       <c r="N6" t="n">
-        <v>211424.7237589474</v>
+        <v>211424.7237589489</v>
       </c>
       <c r="O6" t="n">
-        <v>174395.2850846234</v>
+        <v>176879.4224549641</v>
       </c>
       <c r="P6" t="n">
         <v>211424.7237589476</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="F2" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.997242823745321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0321425292082</v>
+        <v>499.2785577770901</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0321425292082</v>
+        <v>499.2785577770901</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,37 +26799,37 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>850.869080041531</v>
+        <v>868.6226647936492</v>
       </c>
       <c r="K4" t="n">
-        <v>850.869080041531</v>
+        <v>868.6226647936492</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.70447613141114</v>
+        <v>50.80964784433742</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>46.28679834290536</v>
+        <v>43.18162662997895</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>84.07317097267908</v>
+        <v>87.17834268560526</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.2867983429053</v>
+        <v>43.18162662997901</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0321425292082</v>
+        <v>499.2785577770901</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.37998374008691</v>
+        <v>92.13356849220497</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.70447613141114</v>
+        <v>50.80964784433742</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>46.28679834290536</v>
+        <v>43.18162662997895</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.0321425292082</v>
+        <v>499.2785577770901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>74.37998374008691</v>
+        <v>92.13356849220497</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>22.45162947084384</v>
       </c>
       <c r="D2" t="n">
-        <v>53.19865611260172</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>80.69132901038378</v>
+        <v>66.61186335178698</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27594,16 +27594,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>94.06246289638202</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>240.4753947424452</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>80.08301627932462</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>113.7076745049076</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>179.8704934516063</v>
       </c>
       <c r="Y6" t="n">
-        <v>89.48208835376914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27789,7 +27789,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>50.042495973304</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>56.63048077364809</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,10 +27856,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>305.1133005001087</v>
       </c>
       <c r="E8" t="n">
-        <v>90.10679734828341</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28062,22 +28062,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>74.04686661181526</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="C11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="D11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="E11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="F11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="G11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="H11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="I11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="T11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="U11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="V11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="W11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="X11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="C13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="D13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="E13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="F13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="G13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="H13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="I13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="J13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="K13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="L13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="M13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="N13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="O13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="P13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="R13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="S13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="T13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="U13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="V13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="W13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="X13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="C14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="D14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="E14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="F14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="G14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="H14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="I14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="T14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="U14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="V14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="W14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="X14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="C16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="D16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="E16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="F16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="G16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="H16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="I16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="J16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="K16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="L16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="M16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="N16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="O16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="P16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="R16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="S16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="T16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="U16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="V16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="W16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="X16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.6554931841733</v>
+        <v>79.55032147124682</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634531593</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634527857</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,43 +28989,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>35.71049010669063</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634527857</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,37 +29193,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>35.71049010668918</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>50.15384424644526</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>26.4595922249606</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,25 +29533,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>26.45959222496072</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>50.15384424644577</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29940,10 +29940,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5.636002634530428</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.636002634529405</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.636002634530897</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.297982108277</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30648,43 +30648,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.636002634529973</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634529973</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.71049010668751</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -32236,22 +32236,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.021333776245202e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.267054861942472e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.409842669246113e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.432655397579646e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35281586661033e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.154597043650681e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -32321,13 +32321,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.0884973389412e-13</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.117306624578055e-13</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.022117277921815e-13</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>49.00124517904269</v>
+        <v>430.0383498989242</v>
       </c>
       <c r="N2" t="n">
-        <v>517.0321425292082</v>
+        <v>499.2785577770901</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>281.0471204255063</v>
+        <v>499.2785577770901</v>
       </c>
       <c r="N3" t="n">
-        <v>517.0321425292082</v>
+        <v>499.2785577770901</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>489.9336527164058</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>70.38632716748126</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>517.0321425292082</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>517.0321425292082</v>
+        <v>173.7297301086103</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>339.2152895654742</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>517.0321425292082</v>
+        <v>429.5109603751957</v>
       </c>
       <c r="O6" t="n">
-        <v>517.0321425292082</v>
+        <v>499.2785577770901</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>63.35896009881473</v>
+        <v>170.39057540412</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35252,13 +35252,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>570.8562868639664</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L12" t="n">
-        <v>312.5509084442137</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58100571201422</v>
+        <v>49.47583399908775</v>
       </c>
       <c r="K13" t="n">
-        <v>165.3171508709833</v>
+        <v>162.2119791580568</v>
       </c>
       <c r="L13" t="n">
-        <v>248.4409880061933</v>
+        <v>245.3358162932668</v>
       </c>
       <c r="M13" t="n">
-        <v>270.8288046369652</v>
+        <v>267.7236329240388</v>
       </c>
       <c r="N13" t="n">
-        <v>267.6955275591321</v>
+        <v>264.5903558462056</v>
       </c>
       <c r="O13" t="n">
-        <v>247.0037427212521</v>
+        <v>243.8985710083257</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7425293221315</v>
+        <v>200.637357609205</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.11225719432578</v>
+        <v>83.0070854813993</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35726,10 +35726,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>172.5106644169664</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,7 +35738,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58100571201422</v>
+        <v>49.47583399908775</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3171508709833</v>
+        <v>162.2119791580568</v>
       </c>
       <c r="L16" t="n">
-        <v>248.4409880061933</v>
+        <v>245.3358162932668</v>
       </c>
       <c r="M16" t="n">
-        <v>270.8288046369652</v>
+        <v>267.7236329240388</v>
       </c>
       <c r="N16" t="n">
-        <v>267.6955275591321</v>
+        <v>264.5903558462056</v>
       </c>
       <c r="O16" t="n">
-        <v>247.0037427212521</v>
+        <v>243.8985710083257</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7425293221315</v>
+        <v>200.637357609205</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.11225719432578</v>
+        <v>83.0070854813993</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682111</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006882</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>216.4828246711706</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032134157</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376042</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.09276664468034</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434252</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,19 +36285,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594826</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.09276664468034</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287092</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>196.2647259725343</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>559.6023029698717</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576762</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36838,16 +36838,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>577.9756528760522</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>401.8583817530335</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576762</v>
+        <v>631.1992325754006</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220321</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37239,7 +37239,7 @@
         <v>315.4000036905431</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716093</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
@@ -37248,7 +37248,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110607</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>221.4806783164132</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526631</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724891</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528176</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37862,16 +37862,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>107.2231205187088</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37944,22 +37944,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724881</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38190,10 +38190,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724881</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.16725411683999</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
